--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Down1\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AEA188-FA60-4E0C-9791-945BF0128213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F9C4C7-F509-455A-AAA4-BD2B9EC3F1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="900" windowWidth="17385" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="1125" windowWidth="17385" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202005" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,47 @@
   </si>
   <si>
     <t>44</t>
+  </si>
+  <si>
+    <t>20200511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天迈科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002581</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未名医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>星期六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
   </si>
 </sst>
 </file>
@@ -848,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -861,7 +902,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -880,8 +921,11 @@
       <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -895,7 +939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -912,7 +956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -926,7 +970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -943,7 +987,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -957,7 +1001,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -971,7 +1015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -985,7 +1029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -999,7 +1043,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1013,7 +1057,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -1030,7 +1074,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1044,7 +1088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1058,7 +1102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -1072,7 +1116,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1086,7 +1130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -1100,7 +1144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
@@ -1114,7 +1158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -1128,7 +1172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1148,7 +1192,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1162,7 +1206,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -1176,7 +1220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -1190,7 +1234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -1204,7 +1248,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -1218,7 +1262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -1234,8 +1278,11 @@
       <c r="E25" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1252,7 +1299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
@@ -1266,7 +1313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
@@ -1280,7 +1327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
@@ -1294,7 +1341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>92</v>
       </c>
@@ -1311,7 +1358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>95</v>
       </c>
@@ -1325,7 +1372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>98</v>
       </c>
@@ -1339,7 +1386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
@@ -1353,7 +1400,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
@@ -1367,7 +1414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>109</v>
       </c>
@@ -1381,7 +1428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
@@ -1395,7 +1442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -1409,7 +1456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>112</v>
       </c>
@@ -1423,7 +1470,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
@@ -1437,7 +1484,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -1451,7 +1498,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>124</v>
       </c>
@@ -1465,7 +1512,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>127</v>
       </c>
@@ -1484,8 +1531,11 @@
       <c r="F42" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>132</v>
       </c>
@@ -1497,6 +1547,51 @@
       </c>
       <c r="F43" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Down1\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F9C4C7-F509-455A-AAA4-BD2B9EC3F1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7141C4AE-7AA4-44EC-8296-052A55DF2E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="1125" windowWidth="17385" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="585" windowWidth="17385" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202005" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,6 +564,117 @@
   </si>
   <si>
     <t>47</t>
+  </si>
+  <si>
+    <t>20200512</t>
+  </si>
+  <si>
+    <t>300080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易成新能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新农开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603867</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新化股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东岳硅材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫光国微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明德生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603982</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉峰汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模塑科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金健米业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -889,10 +1000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -902,7 +1014,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -924,8 +1036,11 @@
       <c r="G1" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -939,7 +1054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -956,7 +1071,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -970,7 +1085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -987,7 +1102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1001,7 +1116,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1015,7 +1130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1029,7 +1144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1043,7 +1158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1057,7 +1172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -1074,7 +1189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1088,7 +1203,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1102,7 +1217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -1116,7 +1231,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1130,7 +1245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -1386,7 +1501,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
@@ -1400,7 +1515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>104</v>
       </c>
@@ -1414,7 +1529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>109</v>
       </c>
@@ -1428,7 +1543,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>110</v>
       </c>
@@ -1442,7 +1557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -1456,7 +1571,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>112</v>
       </c>
@@ -1469,8 +1584,11 @@
       <c r="F38" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
@@ -1484,7 +1602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -1498,7 +1616,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>124</v>
       </c>
@@ -1512,7 +1630,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>127</v>
       </c>
@@ -1534,8 +1652,11 @@
       <c r="G42" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>132</v>
       </c>
@@ -1551,8 +1672,11 @@
       <c r="G43" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>139</v>
       </c>
@@ -1566,7 +1690,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>140</v>
       </c>
@@ -1579,8 +1703,11 @@
       <c r="G45" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
@@ -1591,6 +1718,132 @@
         <v>141</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>134</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Down1\stocka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7141C4AE-7AA4-44EC-8296-052A55DF2E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3326E1D-3A38-44C1-AB43-A1C639A2629C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="585" windowWidth="17385" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202005" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="189">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,68 @@
   <si>
     <t>金健米业</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200513</t>
+  </si>
+  <si>
+    <t>000564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供销大集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>600550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保变电气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>300674</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇信科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>300785</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值得买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>603613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61</t>
   </si>
 </sst>
 </file>
@@ -1000,11 +1062,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1076,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1039,8 +1101,11 @@
       <c r="H1" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1054,7 +1119,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1071,7 +1136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1085,7 +1150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1102,7 +1167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1116,7 +1181,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1130,7 +1195,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1144,7 +1209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1158,7 +1223,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1171,8 +1236,11 @@
       <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -1189,7 +1257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1203,7 +1271,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1217,7 +1285,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -1231,7 +1299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -1245,7 +1313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -1749,7 +1817,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>152</v>
       </c>
@@ -1763,7 +1831,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>154</v>
       </c>
@@ -1777,7 +1845,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>157</v>
       </c>
@@ -1791,7 +1859,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>160</v>
       </c>
@@ -1805,7 +1873,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>163</v>
       </c>
@@ -1819,7 +1887,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>166</v>
       </c>
@@ -1833,7 +1901,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>169</v>
       </c>
@@ -1845,6 +1913,76 @@
       </c>
       <c r="H55" s="1" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
